--- a/Demo/Data/2_loc_auto_key/data/Loc.xlsx
+++ b/Demo/Data/2_loc_auto_key/data/Loc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\TestData\2_loc_auto_key\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\Demo\Data\2_loc_auto_key\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A2CB5B-1FF9-492B-A17E-494259BC3C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B575ECC5-67FD-4E9D-9323-4F97DEF4302E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1052,13 +1052,13 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -1066,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
@@ -1104,10 +1104,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1115,10 +1115,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1126,10 +1126,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1137,10 +1137,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1148,10 +1148,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1159,10 +1159,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1181,10 +1181,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/Data/2_loc_auto_key/data/Loc.xlsx
+++ b/Demo/Data/2_loc_auto_key/data/Loc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\Demo\Data\2_loc_auto_key\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B575ECC5-67FD-4E9D-9323-4F97DEF4302E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF10D4C-4B72-4087-A6D3-E98C5AF7D0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loc | Export_Client" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>TC_VAL_TC_A</t>
   </si>
@@ -83,17 +83,23 @@
     <t>string
 PK</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大刀</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -101,7 +107,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -109,7 +115,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -118,7 +124,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -127,7 +133,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -136,7 +142,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -144,7 +150,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -152,7 +158,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -160,7 +166,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -168,7 +174,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -177,7 +183,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -186,7 +192,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -194,7 +200,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -203,7 +209,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -211,7 +217,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -220,7 +226,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -229,7 +235,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -237,14 +243,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -753,9 +759,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -793,7 +799,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -899,7 +905,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1041,7 +1047,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1049,19 +1055,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="30">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1099,7 +1105,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1185,6 +1191,17 @@
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
